--- a/assets/zh_cn/excel/炼金与合成/炼金-2.xlsx
+++ b/assets/zh_cn/excel/炼金与合成/炼金-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cicini\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jizhou/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77C3741-7B2B-421D-BC40-45499398C589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC6AF41-0D97-114C-BE6B-8D267E0ED126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="670" yWindow="4570" windowWidth="21130" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
-    <t>物品</t>
-  </si>
-  <si>
-    <t>效果</t>
-  </si>
-  <si>
-    <t>所需素材</t>
-  </si>
-  <si>
-    <t>折叠所需数量</t>
-  </si>
-  <si>
     <t>石头</t>
   </si>
   <si>
@@ -48,10 +36,6 @@
     <t>剑山的刺</t>
   </si>
   <si>
-    <t>粘性外壳配件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>煤炭</t>
   </si>
   <si>
@@ -61,71 +45,70 @@
     <t>电路板</t>
   </si>
   <si>
-    <t>悬浮感应配件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>&lt;p align=center&gt;目标追踪配件&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p align=center&gt;投掷辅助配件&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p align=center&gt;火力增幅配件&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p align=center&gt;粘性外壳配件&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p align=center&gt;悬浮感应配件&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p align=center&gt;&lt;b&gt;物品&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p align=center&gt;&lt;b&gt;效果&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p align=center&gt;&lt;b&gt;所需素材&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p align=center&gt;&lt;b&gt;所需数量&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>用于手榴弹的配件。&lt;br&gt;大幅提升其杀伤力和杀伤范围。&lt;br&gt;每次使用都有一定概率损耗该配件的品质，最终会因劣化而失去效果。</t>
   </si>
   <si>
     <t>用于手榴弹的配件。&lt;br&gt;得益于魔力控制组件的效果，有效提升榴弹的投掷距离，略微扩大杀伤范围。&lt;br&gt;每次使用都有一定概率损耗该配件的品质，最终会因劣化而失去效果。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于手榴弹的配件。&lt;br&gt;为榴弹附加粘着效果，使其能够吸附在墙壁上或敌人身上，并略微提升杀伤力。&lt;br&gt;每次使用都有一定概率损耗该配件的品质，最终会因劣化而失去效果。</t>
   </si>
   <si>
     <t>用于手榴弹的配件。&lt;br&gt;使榴弹掷出后沿地面向敌人移动，并略微提升杀伤力。&lt;br&gt;每次使用都有一定概率损耗该配件的品质，&lt;br&gt;最终会因劣化而失去效果。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火力增幅配件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p align=left&gt;用于手榴弹的配件。&lt;br&gt;大幅提升其杀伤力和杀伤范围。&lt;br&gt;每次使用都有一定概率损耗该配件的品质，最终会因劣化而失去效果。&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p align=left&gt;用于手榴弹的配件。&lt;br&gt;为榴弹附加粘着效果，使其能够吸附在墙壁上或敌人身上，并略微提升杀伤力。&lt;br&gt;每次使用都有一定概率损耗该配件的品质，最终会因劣化而失去效果。&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p align=left&gt;用于手榴弹的配件。&lt;br&gt;使榴弹掷出后悬浮在空中，感应到敌人后自动引爆，并略微提升杀伤力与杀伤范围。&lt;br&gt;每次使用都有一定概率损耗该配件的品质，最终会因劣化而失去效果。&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p align=center&gt;投掷辅助配件&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p align=center&gt;目标追踪配件&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于手榴弹的配件。&lt;br&gt;使榴弹掷出后悬浮在空中，感应到敌人后自动引爆，并略微提升杀伤力与杀伤范围。&lt;br&gt;每次使用都有一定概率损耗该配件的品质，最终会因劣化而失去效果。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF2C3E50"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF2C3E50"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -138,54 +121,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -194,38 +133,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -503,136 +421,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.08203125" customWidth="1"/>
-    <col min="2" max="2" width="29.25" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="2" t="s">
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
+    <row r="9" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="77" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="75.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
+      <c r="D9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A3"/>
@@ -642,7 +556,7 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>